--- a/biology/Zoologie/Echimyidae/Echimyidae.xlsx
+++ b/biology/Zoologie/Echimyidae/Echimyidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echimyidae sont une famille de rongeurs divisée en sous-familles toutes originaires d'Amérique latine, comprenant des « rats épineux », terrestres, arboricoles ou aquatiques.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1825 par le zoologiste britannique John Edward Gray (1800-1875)[1] . 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1825 par le zoologiste britannique John Edward Gray (1800-1875) . 
 Auparavant classées dans cette famille, la sous-famille des Chaetomyinae Thomas, 1897 a été placée sous Erethizontidae. Pour sa part, la sous-famille des Myocastorinae Ameghino, 1902, qui comprend uniquement le ragondin, est à présent de préférence classée dans la famille des Myocastoridae.
 </t>
         </is>
@@ -543,14 +557,16 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (27 sept. 2012)[2] et ITIS      (27 sept. 2012)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (27 sept. 2012) et ITIS      (27 sept. 2012) :
 sous-famille Dactylomyinae Tate, 1935
 sous-famille Echimyinae Gray, 1825
 sous-famille Eumysopinae Rusconi, 1935
 † sous-famille Heteropsomyinae Anthony, 1917
-Selon Paleobiology Database                   (28 aout 2023)[4] :
+Selon Paleobiology Database                   (28 aout 2023) :
 sous-famille Adelphomyinae
 sous-famille Chaetomyinae
 sous-famille Dactylomyinae
@@ -584,9 +600,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (27 sept. 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (27 sept. 2012) :
 sous-famille Dactylomyinae
 genre Dactylomys
 genre Kannabateomys
@@ -612,7 +630,7 @@
 genre † Boromys
 genre † Brotomys
 genre † Heteropsomys
-Selon Paleobiology Database                   (27 sept. 2012)[5] :
+Selon Paleobiology Database                   (27 sept. 2012) :
 sous-famille Adelphomyinae
 genre Carterodon
 genre Caviocricetus
